--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H2">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>1.308635967473334</v>
+        <v>0.309519060904</v>
       </c>
       <c r="R2">
-        <v>11.77772370726</v>
+        <v>2.785671548136</v>
       </c>
       <c r="S2">
-        <v>0.02237737676273617</v>
+        <v>0.01362902834736042</v>
       </c>
       <c r="T2">
-        <v>0.02237737676273616</v>
+        <v>0.01362902834736043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H3">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>0.01445283689777778</v>
+        <v>0.00772059581511111</v>
       </c>
       <c r="R3">
-        <v>0.13007553208</v>
+        <v>0.069485362336</v>
       </c>
       <c r="S3">
-        <v>0.0002471402166764446</v>
+        <v>0.0003399603853647572</v>
       </c>
       <c r="T3">
-        <v>0.0002471402166764445</v>
+        <v>0.0003399603853647573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H4">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>1.189680971824445</v>
+        <v>0.2406734052942222</v>
       </c>
       <c r="R4">
-        <v>10.70712874642</v>
+        <v>2.166060647648</v>
       </c>
       <c r="S4">
-        <v>0.02034327345088517</v>
+        <v>0.01059755303479705</v>
       </c>
       <c r="T4">
-        <v>0.02034327345088517</v>
+        <v>0.01059755303479705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>11.596231</v>
       </c>
       <c r="I5">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J5">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>23.84769930183434</v>
+        <v>10.558866963433</v>
       </c>
       <c r="R5">
-        <v>214.629293716509</v>
+        <v>95.02980267089698</v>
       </c>
       <c r="S5">
-        <v>0.4077902223885356</v>
+        <v>0.4649377545290171</v>
       </c>
       <c r="T5">
-        <v>0.4077902223885355</v>
+        <v>0.4649377545290172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.596231</v>
       </c>
       <c r="I6">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J6">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
-        <v>0.2633787523524445</v>
+        <v>0.2633787523524444</v>
       </c>
       <c r="R6">
         <v>2.370408771172</v>
       </c>
       <c r="S6">
-        <v>0.0045037166325708</v>
+        <v>0.01159733578739834</v>
       </c>
       <c r="T6">
-        <v>0.004503716632570798</v>
+        <v>0.01159733578739834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.596231</v>
       </c>
       <c r="I7">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J7">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>21.67994368667811</v>
+        <v>8.210281010532887</v>
       </c>
       <c r="R7">
-        <v>195.119493180103</v>
+        <v>73.89252909479599</v>
       </c>
       <c r="S7">
-        <v>0.3707220954719672</v>
+        <v>0.3615226548747313</v>
       </c>
       <c r="T7">
-        <v>0.3707220954719671</v>
+        <v>0.3615226548747313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H8">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I8">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J8">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>5.299872843050334</v>
+        <v>1.730825693496</v>
       </c>
       <c r="R8">
-        <v>47.698855587453</v>
+        <v>15.577431241464</v>
       </c>
       <c r="S8">
-        <v>0.0906266176013137</v>
+        <v>0.07621331097380536</v>
       </c>
       <c r="T8">
-        <v>0.09062661760131367</v>
+        <v>0.07621331097380538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H9">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I9">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J9">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>0.05853285381377778</v>
+        <v>0.043173449696</v>
       </c>
       <c r="R9">
-        <v>0.526795684324</v>
+        <v>0.388561047264</v>
       </c>
       <c r="S9">
-        <v>0.001000898458658446</v>
+        <v>0.001901053098447545</v>
       </c>
       <c r="T9">
-        <v>0.001000898458658445</v>
+        <v>0.001901053098447545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H10">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I10">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J10">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>4.818114457483444</v>
+        <v>1.345841876128</v>
       </c>
       <c r="R10">
-        <v>43.36303011735099</v>
+        <v>12.112576885152</v>
       </c>
       <c r="S10">
-        <v>0.08238865901665673</v>
+        <v>0.059261348969078</v>
       </c>
       <c r="T10">
-        <v>0.08238865901665672</v>
+        <v>0.059261348969078</v>
       </c>
     </row>
   </sheetData>
